--- a/ert/input/distributions/design_input_one_by_one.xlsx
+++ b/ert/input/distributions/design_input_one_by_one.xlsx
@@ -466,7 +466,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">orm (mean, max)
+          <t xml:space="preserve">orm (min, max)
 </t>
         </r>
         <r>
@@ -1768,9 +1768,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>262080</xdr:colOff>
+      <xdr:colOff>261720</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>111240</xdr:rowOff>
+      <xdr:rowOff>110880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1780,7 +1780,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8209440" cy="7601400"/>
+          <a:ext cx="8215560" cy="7601040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1813,9 +1813,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>262080</xdr:colOff>
+      <xdr:colOff>261720</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>111240</xdr:rowOff>
+      <xdr:rowOff>110880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1825,7 +1825,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8209440" cy="7601400"/>
+          <a:ext cx="8215560" cy="7601040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1858,9 +1858,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>262080</xdr:colOff>
+      <xdr:colOff>261720</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>111240</xdr:rowOff>
+      <xdr:rowOff>110880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1870,7 +1870,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8209440" cy="7601400"/>
+          <a:ext cx="8215560" cy="7601040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1908,9 +1908,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>165600</xdr:colOff>
+      <xdr:colOff>165240</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1920,7 +1920,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9069480" cy="4767840"/>
+          <a:ext cx="9069120" cy="4767480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1953,9 +1953,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>165600</xdr:colOff>
+      <xdr:colOff>165240</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1965,7 +1965,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9069480" cy="4767840"/>
+          <a:ext cx="9069120" cy="4767480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1998,9 +1998,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>165600</xdr:colOff>
+      <xdr:colOff>165240</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2010,7 +2010,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9069480" cy="4767840"/>
+          <a:ext cx="9069120" cy="4767480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2043,9 +2043,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>165600</xdr:colOff>
+      <xdr:colOff>165240</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2055,7 +2055,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9069480" cy="4767840"/>
+          <a:ext cx="9069120" cy="4767480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2088,9 +2088,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>165600</xdr:colOff>
+      <xdr:colOff>165240</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2100,7 +2100,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9069480" cy="4767840"/>
+          <a:ext cx="9069120" cy="4767480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2133,9 +2133,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>165600</xdr:colOff>
+      <xdr:colOff>165240</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2145,7 +2145,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9069480" cy="4767840"/>
+          <a:ext cx="9069120" cy="4767480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2178,9 +2178,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>165600</xdr:colOff>
+      <xdr:colOff>165240</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2190,7 +2190,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9069480" cy="4767840"/>
+          <a:ext cx="9069120" cy="4767480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2223,9 +2223,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>165600</xdr:colOff>
+      <xdr:colOff>165240</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2235,7 +2235,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9069480" cy="4767840"/>
+          <a:ext cx="9069120" cy="4767480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2268,9 +2268,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>165600</xdr:colOff>
+      <xdr:colOff>165240</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2280,7 +2280,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9069480" cy="4767840"/>
+          <a:ext cx="9069120" cy="4767480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2313,9 +2313,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>165600</xdr:colOff>
+      <xdr:colOff>165240</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2325,7 +2325,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9069480" cy="4767840"/>
+          <a:ext cx="9069120" cy="4767480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2358,9 +2358,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>165600</xdr:colOff>
+      <xdr:colOff>165240</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2370,7 +2370,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9069480" cy="4767840"/>
+          <a:ext cx="9069120" cy="4767480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2408,7 +2408,7 @@
       <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.13"/>
@@ -2475,10 +2475,10 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="8.44"/>
@@ -2492,7 +2492,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="6" width="8.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="7" width="10.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="7" width="10.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="12.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="12.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3357,7 +3357,7 @@
       <selection pane="topLeft" activeCell="A123" activeCellId="0" sqref="A123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="60.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.22"/>
@@ -4365,7 +4365,7 @@
       <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
